--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7848.722221705568</v>
+        <v>-131733.8430663085</v>
       </c>
     </row>
     <row r="7">
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
         <v>4.586202945486093</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,7 +9245,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,16 +9324,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
         <v>56.93882853040725</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M32" t="n">
         <v>4.586202945486093</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,16 +10509,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O34" t="n">
         <v>56.93882853040725</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
         <v>4.586202945486093</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,16 +11220,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
         <v>56.93882853040725</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
         <v>151.3616578248528</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -26316,16 +26316,16 @@
         <v>53753.70276572321</v>
       </c>
       <c r="C2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="D2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="E2" t="n">
         <v>59776.84954095796</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.84954095796</v>
+        <v>59776.84954095797</v>
       </c>
       <c r="G2" t="n">
         <v>59776.84954095796</v>
@@ -26343,7 +26343,7 @@
         <v>59776.84954095796</v>
       </c>
       <c r="L2" t="n">
-        <v>59776.84954095797</v>
+        <v>59776.84954095796</v>
       </c>
       <c r="M2" t="n">
         <v>59776.84954095796</v>
@@ -26352,7 +26352,7 @@
         <v>59776.84954095796</v>
       </c>
       <c r="O2" t="n">
-        <v>59776.84954095796</v>
+        <v>59776.84954095797</v>
       </c>
       <c r="P2" t="n">
         <v>59776.84954095796</v>
@@ -26484,7 +26484,7 @@
         <v>6972.10256325733</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
         <v>6972.10256325733</v>
@@ -26499,7 +26499,7 @@
         <v>6972.10256325733</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="M5" t="n">
         <v>6972.10256325733</v>
@@ -26508,7 +26508,7 @@
         <v>6972.10256325733</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
         <v>6972.10256325733</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-43402.90369346243</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="E6" t="n">
-        <v>-215038.2879414062</v>
+        <v>-229586.6472339175</v>
       </c>
       <c r="F6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106547</v>
       </c>
       <c r="G6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="H6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="I6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="J6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="K6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="L6" t="n">
-        <v>41907.03846357676</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="M6" t="n">
-        <v>41907.03846357675</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="N6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="O6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106547</v>
       </c>
       <c r="P6" t="n">
-        <v>41907.03846357675</v>
+        <v>27358.67917106546</v>
       </c>
     </row>
   </sheetData>
@@ -32232,7 +32232,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
         <v>109.1233211798925</v>
@@ -32241,7 +32241,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
         <v>225.7600302817866</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
         <v>23.68487325669467</v>
@@ -32332,13 +32332,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
@@ -32347,7 +32347,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,7 +32384,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
         <v>5.127625437558785</v>
@@ -32396,16 +32396,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
         <v>81.51770992143554</v>
@@ -32414,7 +32414,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
@@ -33417,7 +33417,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J32" t="n">
         <v>109.1233211798925</v>
@@ -33426,7 +33426,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
@@ -33517,13 +33517,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
@@ -33532,7 +33532,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H34" t="n">
         <v>5.127625437558785</v>
@@ -33581,16 +33581,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O34" t="n">
         <v>81.51770992143554</v>
@@ -33599,7 +33599,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -34128,7 +34128,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
         <v>109.1233211798925</v>
@@ -34137,7 +34137,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
@@ -34228,13 +34228,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
@@ -34243,7 +34243,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
         <v>5.127625437558785</v>
@@ -34292,16 +34292,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
         <v>81.51770992143554</v>
@@ -34310,7 +34310,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_9_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131733.8430663085</v>
+        <v>-20701.53659533117</v>
       </c>
     </row>
     <row r="7">
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
         <v>56.54227989916996</v>
@@ -9172,13 +9172,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
         <v>46.34579576917247</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
         <v>26.75787480980772</v>
@@ -9336,10 +9336,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
         <v>4.586202945486093</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,16 +10272,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
         <v>56.93882853040725</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
         <v>4.586202945486093</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,16 +10509,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
         <v>56.93882853040725</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M41" t="n">
         <v>4.586202945486093</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,16 +11220,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O43" t="n">
         <v>56.93882853040725</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
         <v>4.586202945486093</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,16 +11457,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
         <v>56.93882853040725</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23439,7 +23439,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
         <v>151.3616578248528</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23676,7 +23676,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
         <v>151.3616578248528</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23913,7 +23913,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
@@ -24150,7 +24150,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
         <v>151.3616578248528</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24387,7 +24387,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
         <v>151.3616578248528</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
         <v>151.3616578248528</v>
@@ -26316,22 +26316,22 @@
         <v>53753.70276572321</v>
       </c>
       <c r="C2" t="n">
-        <v>53753.7027657232</v>
+        <v>53753.70276572321</v>
       </c>
       <c r="D2" t="n">
-        <v>53753.7027657232</v>
+        <v>53753.70276572321</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.84954095796</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.84954095797</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.84954095796</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="H2" t="n">
-        <v>59776.84954095796</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="I2" t="n">
         <v>59776.84954095796</v>
@@ -26340,7 +26340,7 @@
         <v>59776.84954095796</v>
       </c>
       <c r="K2" t="n">
-        <v>59776.84954095796</v>
+        <v>59776.84954095797</v>
       </c>
       <c r="L2" t="n">
         <v>59776.84954095796</v>
@@ -26352,7 +26352,7 @@
         <v>59776.84954095796</v>
       </c>
       <c r="O2" t="n">
-        <v>59776.84954095797</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="P2" t="n">
         <v>59776.84954095796</v>
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
         <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
         <v>6972.10256325733</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
         <v>6972.10256325733</v>
@@ -26508,10 +26508,10 @@
         <v>6972.10256325733</v>
       </c>
       <c r="O5" t="n">
+        <v>6972.10256325733</v>
+      </c>
+      <c r="P5" t="n">
         <v>6972.102563257328</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6972.10256325733</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43402.90369346243</v>
+        <v>-29767.29712043114</v>
       </c>
       <c r="C6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="D6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043114</v>
       </c>
       <c r="E6" t="n">
-        <v>-229586.6472339175</v>
+        <v>-216493.1238706573</v>
       </c>
       <c r="F6" t="n">
-        <v>27358.67917106547</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="G6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="H6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="I6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.20253432561</v>
       </c>
       <c r="J6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.20253432562</v>
       </c>
       <c r="K6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.20253432562</v>
       </c>
       <c r="L6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.20253432561</v>
       </c>
       <c r="M6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.20253432561</v>
       </c>
       <c r="N6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.20253432562</v>
       </c>
       <c r="O6" t="n">
-        <v>27358.67917106547</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="P6" t="n">
-        <v>27358.67917106546</v>
+        <v>40452.20253432561</v>
       </c>
     </row>
   </sheetData>
@@ -31758,16 +31758,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
         <v>225.7600302817866</v>
@@ -31785,13 +31785,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31858,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
         <v>25.93173355231669</v>
@@ -31995,16 +31995,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32022,13 +32022,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32095,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,37 +32147,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32235,7 +32235,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
@@ -32259,13 +32259,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32314,7 +32314,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32344,7 +32344,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
         <v>0.04525771959877963</v>
@@ -32387,13 +32387,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
         <v>67.00516676073742</v>
@@ -32408,10 +32408,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
         <v>48.29300399320443</v>
@@ -32469,16 +32469,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
         <v>225.7600302817866</v>
@@ -32496,13 +32496,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32569,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,37 +32621,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>
@@ -32706,16 +32706,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
         <v>225.7600302817866</v>
@@ -32733,13 +32733,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32806,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,37 +32858,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
         <v>25.93173355231669</v>
@@ -33180,7 +33180,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
         <v>109.1233211798925</v>
@@ -33189,7 +33189,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
@@ -33280,13 +33280,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
@@ -33295,7 +33295,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
         <v>5.127625437558785</v>
@@ -33344,16 +33344,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
         <v>81.51770992143554</v>
@@ -33362,7 +33362,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33417,7 +33417,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
         <v>109.1233211798925</v>
@@ -33426,7 +33426,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
@@ -33517,13 +33517,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
@@ -33532,7 +33532,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
         <v>5.127625437558785</v>
@@ -33581,16 +33581,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
         <v>81.51770992143554</v>
@@ -33599,7 +33599,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -34128,7 +34128,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J41" t="n">
         <v>109.1233211798925</v>
@@ -34137,7 +34137,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
@@ -34228,13 +34228,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
@@ -34243,7 +34243,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H43" t="n">
         <v>5.127625437558785</v>
@@ -34292,16 +34292,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O43" t="n">
         <v>81.51770992143554</v>
@@ -34310,7 +34310,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34365,7 +34365,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
         <v>109.1233211798925</v>
@@ -34374,7 +34374,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
         <v>225.7600302817866</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
         <v>23.68487325669467</v>
@@ -34465,13 +34465,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
         <v>12.77776283338877</v>
@@ -34480,7 +34480,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,7 +34517,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
         <v>5.127625437558785</v>
@@ -34529,16 +34529,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
         <v>81.51770992143554</v>
@@ -34547,7 +34547,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
         <v>25.93173355231669</v>
